--- a/SlangHouder/Metingen wasdroger.xlsx
+++ b/SlangHouder/Metingen wasdroger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b8df8976555b484/03 HenkJan/022 Blender/_Amber/Houder voor slang droger/Excel template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkjan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B94E50C0-D3D9-4164-BE4F-EA7733EEC4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019C0DE6-F266-4AC1-9E35-F082CA4C5670}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC65D57-F1AC-4CFC-B29D-CD84F6CB9B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FjKac57c50VlK8CxxWLkJcNDpWC9ntLHkU9O1mVsi8In22a43pjSbvBQVr5tx/Wgm+ydCBYxA8QRq0RG/fU4MA==" workbookSaltValue="tehp/MXcaWv/G2OPFA0SEw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{065D0C5A-E3E9-425A-A6A0-C070A1B485E7}"/>
@@ -114,16 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2614,7 +2611,7 @@
   <dimension ref="A4:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2681,7 +2678,7 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>45</v>
       </c>
       <c r="G25" t="s">
@@ -2689,6 +2686,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="O9Rr+H3hqBf/pGxGfvNLRiIOHM9KZvpqncyQKn+3O+mHj0GV4PY84RY99r3FCA7G4R+0d2iKrcMD6aziO0f+Zg==" saltValue="1DtL66sDRPpigrU2kR7N9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2708,493 +2706,493 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>-Sheet1!E4</f>
         <v>-8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>-30</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="3"/>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>Sheet2!$B$3</f>
         <v>-8</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>-3</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>B2</f>
         <v>-8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4">
+      <c r="D3" s="3"/>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>Sheet2!$B$5</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>-3</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>-Sheet1!$E$14*COS(RADIANS(Sheet1!$B$18))</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>-Sheet1!$E$14*SIN(RADIANS(Sheet1!$B$18))</f>
         <v>-19.92389396183491</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="3"/>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>Sheet2!$B$3</f>
         <v>-8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>B5+Sheet1!$G$22*SIN(RADIANS(Sheet1!$B$18))</f>
         <v>6.724088345411892</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>C5-Sheet1!$G$22*COS(RADIANS(Sheet1!$B$18))</f>
         <v>-19.488115248096619</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="3"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>Sheet2!$B$5</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>B6-(C7-C6)*TAN(RADIANS(Sheet1!$B$18-90))</f>
         <v>4.2744057666860193</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>C6+Sheet1!$H$10</f>
         <v>8.5118847519033807</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>-30</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>C7</f>
         <v>8.5118847519033807</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="3"/>
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>Sheet2!$B$3</f>
         <v>-8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>Sheet1!$F$25</f>
         <v>45</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>Sheet2!$B$5</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>Sheet1!$F$25</f>
         <v>45</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>-35</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>-80</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>B10</f>
         <v>-35</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>7</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>Sheet2!$B$3</f>
         <v>-8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>H8+3</f>
         <v>48</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <f>D11</f>
         <v>40</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f>Sheet2!$B$5</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>H9+3</f>
         <v>48</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f>B12</f>
         <v>15</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <f>D10</f>
         <v>-80</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>B10</f>
         <v>-35</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <f>D10</f>
         <v>-80</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>9</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>G2</f>
         <v>-8</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f>$H$2-6</f>
         <v>-9</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>10</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f>G14</f>
         <v>-8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>$H$12+3</f>
         <v>51</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>11</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>Sheet2!$B$5</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>$H$2-3</f>
         <v>-6</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f>G17</f>
         <v>1.7431148549531648</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f>$H$12+3</f>
         <v>51</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>13</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f>Sheet2!B6</f>
         <v>6.724088345411892</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f>$H$2-3</f>
         <v>-6</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>14</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f>G20</f>
         <v>6.724088345411892</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f>$H$12+3</f>
         <v>51</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>15</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>H17</f>
         <v>-6</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>16</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f>H2</f>
         <v>-3</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>17</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>18</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f>G26</f>
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>Sheet1!$F$25</f>
         <v>45</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>19</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f>$G$23</f>
         <v>0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>H27+3</f>
         <v>48</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>20</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f>$G$23</f>
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>H29+3</f>
         <v>51</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <v>-30</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F33" s="4"/>
-      <c r="G33" s="4">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
         <v>20</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
     </row>
